--- a/Document/스프링부트 게시판제작 일정계획서(WBS)_v1.7_20201007.xlsx
+++ b/Document/스프링부트 게시판제작 일정계획서(WBS)_v1.7_20201007.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>WBS</t>
   </si>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1727,7 +1727,9 @@
       <c r="E12" s="18">
         <v>44128</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <v>44111</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="46">
         <f t="shared" si="0"/>
